--- a/citations/publisher_iwa_2021.xlsx
+++ b/citations/publisher_iwa_2021.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,11 +355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL22"/>
+  <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -552,37 +559,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2312514224</t>
+          <t>https://openalex.org/W2588772903</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Influence of residence time of reclaimed water within distribution systems on water quality</t>
+          <t>Control of urine odor in different sanitation practices and its implication on water saving</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Influence of residence time of reclaimed water within distribution systems on water quality</t>
+          <t>Control of urine odor in different sanitation practices and its implication on water saving</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The influence of residence time of reclaimed water within water distribution systems on microbial water quality was evaluated in two wastewater reclamation facilities in southern Arizona over a 15-month period. These utilities differed in age, geographic location, means of treatment, and disinfection (i.e. UV versus chlorine). At both facilities, samples were collected from the point of compliance (POC) directly after disinfection, and at discrete locations with increasing distance from the POC. Following entry into reclaimed water distribution systems, overall microbial water quality decreased rapidly due to microbial regrowth. However, following such regrowth, microbial concentrations remained relatively constant. Water-based opportunistic pathogens (Legionella, Mycobacterium, and Aeromonas) were frequently detected in both reclaimed water systems. In contrast, waterborne indicators such as Escherichia coli and Enterococcus were rarely detected, and only at low concentrations. These dates suggest the need for new indicators of water-based pathogens to be developed. Rechlorination in one of the distribution systems only reduced the concentration of bacteria temporarily due to rapid dissipation of chlorine, and subsequent regrowth of both water-based pathogens and indicators. Amoebic activity was detected in approximately one-third of all samples tested from both utilities, but was not correlated with either water-based pathogens or indicators.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2013-03-26</t>
-        </is>
+          <t>To avoid odor in sanitation systems, urine is usually diluted with water (flushed), which leads to high water consumption. The smell may remain in sanitation systems if the systems are not well managed, or if the urine is flushed with insufficient amounts of water. In this study, using the standard threshold odor number (TON) measurement as an indicator of urine odor, the effects of the pH and temperature of the diluting water regarding the amount of water:urine dilution ratio were studied. The effects of temperature and pH of the diluting water on TON when the dilution ratio was constant were investigated. Results show that lowering the pH and temperature of the diluting water can reduce the minimum dilution ratio needed to achieve TON = 0. At constant dilution ratio, reducing pH seemed to be more efficient, sustainable, and economical in comparison to adjusting the temperature of the diluting water. It was found that, based on the specific pH and temperature of the diluting water, there is a minimum dilution ratio required to avoid urine odor. Therefore, in sanitation systems, the amount of flushing should be adjusted based on the characteristics of the flushing water as well as on the amount of urination.</t>
+        </is>
+      </c>
+      <c r="F2" s="2">
+        <v>42780</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Journal of Water Reuse and Desalination</t>
+          <t>Journal of Water Sanitation and Hygiene for Development</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2487679084</t>
+          <t>https://openalex.org/S2495644771</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -592,58 +597,43 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2220-1319</t>
+          <t>2043-9083</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/wrd.2013.088</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>https://iwaponline.com/jwrd/article-pdf/3/3/185/377906/185.pdf</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
+          <t>https://doi.org/10.2166/washdev.2017.094</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>156</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>162</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>https://iwaponline.com/jwrd/article-pdf/3/3/185/377906/185.pdf</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="W2" t="b">
@@ -655,19 +645,19 @@
         </is>
       </c>
       <c r="Z2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AB2">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W2312514224</t>
+          <t>https://api.openalex.org/works?filter=cites:W2588772903</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/wrd.2013.088</t>
+          <t>https://doi.org/10.2166/washdev.2017.094</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -685,28 +675,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2588772903</t>
+          <t>https://openalex.org/W3021236146</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Control of urine odor in different sanitation practices and its implication on water saving</t>
+          <t>Is household water insecurity a link between water governance and well-being? A multi-site analysis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Control of urine odor in different sanitation practices and its implication on water saving</t>
+          <t>Is household water insecurity a link between water governance and well-being? A multi-site analysis</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>To avoid odor in sanitation systems, urine is usually diluted with water (flushed), which leads to high water consumption. The smell may remain in sanitation systems if the systems are not well managed, or if the urine is flushed with insufficient amounts of water. In this study, using the standard threshold odor number (TON) measurement as an indicator of urine odor, the effects of the pH and temperature of the diluting water regarding the amount of water:urine dilution ratio were studied. The effects of temperature and pH of the diluting water on TON when the dilution ratio was constant were investigated. Results show that lowering the pH and temperature of the diluting water can reduce the minimum dilution ratio needed to achieve TON = 0. At constant dilution ratio, reducing pH seemed to be more efficient, sustainable, and economical in comparison to adjusting the temperature of the diluting water. It was found that, based on the specific pH and temperature of the diluting water, there is a minimum dilution ratio required to avoid urine odor. Therefore, in sanitation systems, the amount of flushing should be adjusted based on the characteristics of the flushing water as well as on the amount of urination.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2017-02-14</t>
-        </is>
+          <t>Abstract Improving water governance is a top priority for addressing the global water crisis. Yet, there is a dearth of empirical data examining whether better water governance is associated with lower water insecurity and improved well-being. We, therefore, pooled household data from two Sustainable Water Effectiveness Reviews conducted by Oxfam GB in Zambia (n = 997) and the Democratic Republic of Congo (DRC, n = 1,071) to assess the relationship between perceived water governance (using a 12-item indicator), water insecurity [using the Household Water Insecurity Experiences (HWISE) Scale], and four indicators of well-being: life satisfaction, drinking unsafe water, diarrhea, and resilience to cholera outbreak. Using generalized structural equation models controlling for wealth and primary water source, each point increase in water governance score was associated with a 0.69-point decrease in HWISE Scale scores. Good water governance was also directly associated with greater odds of life satisfaction (aOR 1.24) and lower odds of both drinking unsafe water (aOR 0.91) and severe cholera impact (aOR 0.92). Furthermore, the relationships between water governance and drinking unsafe water, diarrhea, and cholera impact were mediated by household water insecurity. Improving water governance has the potential to meaningfully impact entrenched public health issues through changes in water insecurity.</t>
+        </is>
+      </c>
+      <c r="F3" s="2">
+        <v>43942</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -730,38 +718,53 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/washdev.2017.094</t>
+          <t>https://doi.org/10.2166/washdev.2020.165</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://iwaponline.com/washdev/article-pdf/10/2/320/713067/washdev0100320.pdf</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>320</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>334</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>diamond</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>https://iwaponline.com/washdev/article-pdf/10/2/320/713067/washdev0100320.pdf</t>
         </is>
       </c>
       <c r="W3" t="b">
@@ -773,19 +776,19 @@
         </is>
       </c>
       <c r="Z3">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AB3">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W2588772903</t>
+          <t>https://api.openalex.org/works?filter=cites:W3021236146</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/washdev.2017.094</t>
+          <t>https://doi.org/10.2166/washdev.2020.165</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -803,37 +806,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3021236146</t>
+          <t>https://openalex.org/W2146252001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Is household water insecurity a link between water governance and well-being? A multi-site analysis</t>
+          <t>Direct potable reuse: a future imperative</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Is household water insecurity a link between water governance and well-being? A multi-site analysis</t>
+          <t>Direct potable reuse: a future imperative</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Abstract Improving water governance is a top priority for addressing the global water crisis. Yet, there is a dearth of empirical data examining whether better water governance is associated with lower water insecurity and improved well-being. We, therefore, pooled household data from two Sustainable Water Effectiveness Reviews conducted by Oxfam GB in Zambia (n = 997) and the Democratic Republic of Congo (DRC, n = 1,071) to assess the relationship between perceived water governance (using a 12-item indicator), water insecurity [using the Household Water Insecurity Experiences (HWISE) Scale], and four indicators of well-being: life satisfaction, drinking unsafe water, diarrhea, and resilience to cholera outbreak. Using generalized structural equation models controlling for wealth and primary water source, each point increase in water governance score was associated with a 0.69-point decrease in HWISE Scale scores. Good water governance was also directly associated with greater odds of life satisfaction (aOR 1.24) and lower odds of both drinking unsafe water (aOR 0.91) and severe cholera impact (aOR 0.92). Furthermore, the relationships between water governance and drinking unsafe water, diarrhea, and cholera impact were mediated by household water insecurity. Improving water governance has the potential to meaningfully impact entrenched public health issues through changes in water insecurity.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2020-04-21</t>
-        </is>
+          <t>As a result of population growth, urbanization, and climate change, public water supplies are becoming stressed, and the chances of tapping new water supplies for metropolitan areas are getting more difficult, if not impossible. As a consequence, existing water supplies must go further. One way to achieve this objective is by increased water reuse, particularly in supplementing municipal water supplies. Although water reuse offers many opportunities it also involves a number of problems. A significant cost for nonpotable water reuse in urban areas is associated with the need to provide separate piping and storage systems for reclaimed water. In most situations, the cost of a dual distribution system has been prohibitive and thus, has limited implementation for water reuse programs. The solution to the problem of distribution is to implement direct potable reuse (DPR) of purified water in the existing water distribution system. The purpose of this paper is to consider (a) a future in which DPR will be the norm and (b) the steps that will need to be taken to make this a reality. Following an overview, the rationale for DPR, some examples of DPR projects, technological and implementation issues, and future expectations are examined.</t>
+        </is>
+      </c>
+      <c r="F4" s="2">
+        <v>40603</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Journal of Water Sanitation and Hygiene for Development</t>
+          <t>Journal of Water Reuse and Desalination</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2495644771</t>
+          <t>https://openalex.org/S2487679084</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -843,17 +844,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2043-9083</t>
+          <t>2220-1319</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/washdev.2020.165</t>
+          <t>https://doi.org/10.2166/wrd.2011.000</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/washdev/article-pdf/10/2/320/713067/washdev0100320.pdf</t>
+          <t>https://iwaponline.com/jwrd/article-pdf/1/1/2/375864/2.pdf</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -863,22 +864,22 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>10</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S4" t="b">
@@ -889,12 +890,12 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>diamond</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/washdev/article-pdf/10/2/320/713067/washdev0100320.pdf</t>
+          <t>https://iwaponline.com/jwrd/article-pdf/1/1/2/375864/2.pdf</t>
         </is>
       </c>
       <c r="W4" t="b">
@@ -906,19 +907,19 @@
         </is>
       </c>
       <c r="Z4">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="AB4">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W3021236146</t>
+          <t>https://api.openalex.org/works?filter=cites:W2146252001</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/washdev.2020.165</t>
+          <t>https://doi.org/10.2166/wrd.2011.000</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -936,37 +937,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2411691884</t>
+          <t>https://openalex.org/W2587329661</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Trend analysis in climatic variables and impacts on rice yield in Nigeria</t>
+          <t>Direct potable reuse – a feasible water management option</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Trend analysis in climatic variables and impacts on rice yield in Nigeria</t>
+          <t>Direct potable reuse – a feasible water management option</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The effects of changes in meteorological parameters on rice yield variations were considered. Weather parameters, temperature (T), rainfall (R), relative humidity (RH) and solar radiation (SR), and rice yield variation for Ibadan were analyzed. Meteorological parameters were obtained from the International Institute for Tropical Agriculture while rice yield data were obtained from the Africa Rice Centre both in Nigeria for three decades (1980–2010). Trends analysis of past and recent variations using the weather parameters obtained showed trends of variability of each parameter with respect to rice yield. Mann–Kendall trend and Sen's slope tests were performed on the respective meteorological variables while correlation, multiple regression and variability index (VI) were also computed for these parameters. Results showed that T, RH and rice yield were negative and decreased significantly (P &amp;amp;lt; 0.001) while R and SR showed statistically non-significant increasing trends in the last three decades. R and T decreased at the rate of 3% per year and 0.03% per decade, respectively. Results of annual VI showed that decreases observed in RH, SR and rice yield were rather recent. T, SR and R were found to have the most significant effect on rice yield of all the meteorological parameters considered.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2015-03-25</t>
-        </is>
+          <t>Abstract Direct potable reuse (DPR) can be more economic than indirect potable reuse as no environmental buffer is needed and conveyance and blending of the purified water with other potable sources is basically less expensive. Long-term experience in Windhoek (48 years) shows that treated domestic sewage can be safely and cost-efficiently utilized for potable reclamation (0.72 €/m3). A multiple barrier strategy is employed in order to attain the highest possible safety levels. There are three types of barriers: non-treatment, treatment and operational barriers. In recent years, new DPR schemes have been implemented in South Africa and in the USA, and the major difference between all the new reclamation processes and the Windhoek New Goreangab water reclamation plant lies in the employment of desalination process units. This topic and other issues, such as the use of ozone and biological activated carbon filtration, are addressed. Reclamation process optimization (increase in sustainability) and the attainment of greater public acceptance are the major challenges facing the promotion of DPR, which should become a common and widely used water management option within the next 5–10 years.</t>
+        </is>
+      </c>
+      <c r="F5" s="2">
+        <v>42775</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Journal of Water and Climate Change</t>
+          <t>Journal of Water Reuse and Desalination</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://openalex.org/S32042501</t>
+          <t>https://openalex.org/S2487679084</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -976,17 +975,22 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2040-2244</t>
+          <t>2220-1319</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/wcc.2015.044</t>
+          <t>https://doi.org/10.2166/wrd.2017.172</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jwcc/article-pdf/6/3/534/374312/jwc0060534.pdf</t>
+          <t>https://iwaponline.com/jwrd/article-pdf/8/1/14/240158/jwrd0080014.pdf</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>cc-by-nc-sa</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -996,22 +1000,22 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>14</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>28</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S5" t="b">
@@ -1022,12 +1026,12 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jwcc/article-pdf/6/3/534/374312/jwc0060534.pdf</t>
+          <t>https://iwaponline.com/jwrd/article-pdf/8/1/14/240158/jwrd0080014.pdf</t>
         </is>
       </c>
       <c r="W5" t="b">
@@ -1039,19 +1043,19 @@
         </is>
       </c>
       <c r="Z5">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="AB5">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W2411691884</t>
+          <t>https://api.openalex.org/works?filter=cites:W2587329661</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/wcc.2015.044</t>
+          <t>https://doi.org/10.2166/wrd.2017.172</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1069,37 +1073,35 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2146252001</t>
+          <t>https://openalex.org/W2083662853</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Direct potable reuse: a future imperative</t>
+          <t>Comparison of different radar-raingauge rainfall merging techniques</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Direct potable reuse: a future imperative</t>
+          <t>Comparison of different radar-raingauge rainfall merging techniques</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>As a result of population growth, urbanization, and climate change, public water supplies are becoming stressed, and the chances of tapping new water supplies for metropolitan areas are getting more difficult, if not impossible. As a consequence, existing water supplies must go further. One way to achieve this objective is by increased water reuse, particularly in supplementing municipal water supplies. Although water reuse offers many opportunities it also involves a number of problems. A significant cost for nonpotable water reuse in urban areas is associated with the need to provide separate piping and storage systems for reclaimed water. In most situations, the cost of a dual distribution system has been prohibitive and thus, has limited implementation for water reuse programs. The solution to the problem of distribution is to implement direct potable reuse (DPR) of purified water in the existing water distribution system. The purpose of this paper is to consider (a) a future in which DPR will be the norm and (b) the steps that will need to be taken to make this a reality. Following an overview, the rationale for DPR, some examples of DPR projects, technological and implementation issues, and future expectations are examined.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2011-03-01</t>
-        </is>
+          <t>The improvement of precipitation estimation with the use of radar-raingauge rainfall merging techniques is influenced by several factors, such as topography, storm types, raingauge network density for adjustment, data quality and the rainfall accumulation time. However, the influence of the raingauge network configuration on the performance of radar-raingauge merging methods is often ignored. The aim of this study is to compare and evaluate the performance of different radar-raingauge merging methods on various densities of raingauge network and raingauge network configurations. The analysis of the effect of the raingauge network density shows that the performance of Kriging merging methods increases with the increase of raingauge network density. The results also showed that the influence of raingauge network configuration on the spatial distribution of precipitation of the merged products is relatively smaller for the Kriging with radar-based error correction (KRE) and Kriging with external drift (KED) methods than for the ordinary Kriging method. This indicates that the inclusion of radar data in the KRE and KED methods helps to maintain the spatial distribution of precipitation on an hourly timescale. According to the statistical performance indicators and visual inspection of the merged rainfall fields, the KED outperforms the other radar-raingauge merging techniques, regardless of raingauge network density and configuration.</t>
+        </is>
+      </c>
+      <c r="F6" s="2">
+        <v>42007</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Journal of Water Reuse and Desalination</t>
+          <t>Journal of Hydroinformatics</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2487679084</t>
+          <t>https://openalex.org/S79392371</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1109,17 +1111,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2220-1319</t>
+          <t>1464-7141</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/wrd.2011.000</t>
+          <t>https://doi.org/10.2166/hydro.2015.001</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jwrd/article-pdf/1/1/2/375864/2.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/17/3/422/388329/jh0170422.pdf</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1129,22 +1131,22 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>422</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>445</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S6" t="b">
@@ -1160,7 +1162,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jwrd/article-pdf/1/1/2/375864/2.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/17/3/422/388329/jh0170422.pdf</t>
         </is>
       </c>
       <c r="W6" t="b">
@@ -1172,19 +1174,19 @@
         </is>
       </c>
       <c r="Z6">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="AB6">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W2146252001</t>
+          <t>https://api.openalex.org/works?filter=cites:W2083662853</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/wrd.2011.000</t>
+          <t>https://doi.org/10.2166/hydro.2015.001</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1202,37 +1204,35 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2587329661</t>
+          <t>https://openalex.org/W2045185088</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Direct potable reuse – a feasible water management option</t>
+          <t>Improving the rapidity of responses to pipe burst in water distribution systems: a comparison of statistical process control methods</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Direct potable reuse – a feasible water management option</t>
+          <t>Improving the rapidity of responses to pipe burst in water distribution systems: a comparison of statistical process control methods</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Abstract Direct potable reuse (DPR) can be more economic than indirect potable reuse as no environmental buffer is needed and conveyance and blending of the purified water with other potable sources is basically less expensive. Long-term experience in Windhoek (48 years) shows that treated domestic sewage can be safely and cost-efficiently utilized for potable reclamation (0.72 €/m3). A multiple barrier strategy is employed in order to attain the highest possible safety levels. There are three types of barriers: non-treatment, treatment and operational barriers. In recent years, new DPR schemes have been implemented in South Africa and in the USA, and the major difference between all the new reclamation processes and the Windhoek New Goreangab water reclamation plant lies in the employment of desalination process units. This topic and other issues, such as the use of ozone and biological activated carbon filtration, are addressed. Reclamation process optimization (increase in sustainability) and the attainment of greater public acceptance are the major challenges facing the promotion of DPR, which should become a common and widely used water management option within the next 5–10 years.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2017-02-09</t>
-        </is>
+          <t>A pipe burst is a major water distribution system failure. Water escapes the network through the break increasing the total flow entering the network. These higher flows, in turn, increase the head losses in pipes and result in lower water pressures at customer taps. This study focuses on burst detection by seeking to identify anomalies in net system demand, pipe flow rates, and nodal pressure heads. Three univariate statistical process control (SPC) methods (the Western Electric Company rules, the cumulative sum (CUSUM) method, and the exponentially weighted moving average [EWMA]) and three multivariate SPC methods (Hotelling T2 method and multivariate versions of CUSUM and EWMA) are compared with respect to their detection effectiveness and efficiency. First, the three univariate methods are tested using real system burst detection and then the six SPC methods are compared using synthetic data. The real application using net system demand shows that burst flows are proportionally too small to be detected. Synthetic data analyses suggest that the univariate EWMA method using nodal pressure provides the highest detectability. The method's long record length helps detect small bursts and avoid false detection. SPC methods require consistent system operations for measurements beyond total area flow.</t>
+        </is>
+      </c>
+      <c r="F7" s="2">
+        <v>41920</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Journal of Water Reuse and Desalination</t>
+          <t>Journal of Hydroinformatics</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2487679084</t>
+          <t>https://openalex.org/S79392371</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1242,22 +1242,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2220-1319</t>
+          <t>1464-7141</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/wrd.2017.172</t>
+          <t>https://doi.org/10.2166/hydro.2014.101</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jwrd/article-pdf/8/1/14/240158/jwrd0080014.pdf</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>cc-by-nc-sa</t>
+          <t>https://iwaponline.com/jh/article-pdf/17/2/307/387901/jh0170307.pdf</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1267,22 +1262,22 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>307</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>328</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S7" t="b">
@@ -1293,12 +1288,12 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jwrd/article-pdf/8/1/14/240158/jwrd0080014.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/17/2/307/387901/jh0170307.pdf</t>
         </is>
       </c>
       <c r="W7" t="b">
@@ -1313,16 +1308,16 @@
         <v>65</v>
       </c>
       <c r="AB7">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W2587329661</t>
+          <t>https://api.openalex.org/works?filter=cites:W2045185088</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/wrd.2017.172</t>
+          <t>https://doi.org/10.2166/hydro.2014.101</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1340,28 +1335,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1998762922</t>
+          <t>https://openalex.org/W1978787936</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Appropriate resolution timescale to evaluate water saving and retention potential of rainwater harvesting for toilet flushing in single houses</t>
+          <t>Heuristic burst detection method using flow and pressure measurements</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Appropriate resolution timescale to evaluate water saving and retention potential of rainwater harvesting for toilet flushing in single houses</t>
+          <t>Heuristic burst detection method using flow and pressure measurements</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>The main objective of the paper is to identify the appropriate temporal scale for modeling the behavior of rainwater harvesting tanks in relation to the purpose they are built for, i.e., water saving, stormwater retention potential, etc. A tank water balance model coupled with a specific procedure to determine long-term series of rainfall (tank inflow) and toilet flushes (tank outflow) at different daily and sub-daily resolution timescales was developed. The model was applied to a household case study for which detailed water demand data are available from measurements. Simulations show that the daily scale may be reliably chosen to evaluate the tank water saving efficiency. In contrast, sub-daily resolutions (at least the hourly time step) are needed for the evaluation of the tank retention efficiency to limit inaccuracies, especially for small tanks and for high values of the water demand. Moreover, preliminary results at the 5 min time step show that rainwater tanks can help in reducing the rainfall intensity peak, basically depending on the tank storage and on the rainfall event characteristics.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2015-01-03</t>
-        </is>
+          <t>Pipe bursts in a drinking water distribution system lead to water losses, interruption of supply, and damage to streets and houses due to the uncontrolled water flow. To minimize the negative consequences of pipe bursts, an early detection is necessary. This paper describes a heuristic burst detection method, which continuously compares measured and expected values of water demands and pressures. The expected values of the water demand are generated by an adaptive water demand forecasting model, and the expected values of the pressures are generated by a dynamic pressure drop – demand relation estimator. The method was tested off-line on a historic dataset of 5 years of water flow and pressure data in three supply areas (with 650, 11,180 and 130,920 connections) in the western part of the Netherlands. In the period 274 bursts were reported of which, based on the definition we propose in this paper, 38 were considered as relatively larger bursts. The method was able to detect 50, 25.9 and 7.8% in the considered areas related to all bursts, and around 80% in all three areas related to the subset of relatively larger bursts. The method generated false alarms on 3% of the evaluated days on average.</t>
+        </is>
+      </c>
+      <c r="F8" s="2">
+        <v>41752</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1385,12 +1378,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/hydro.2015.022</t>
+          <t>https://doi.org/10.2166/hydro.2014.120</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jh/article-pdf/17/3/331/388088/jh0170331.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/16/5/1194/387436/1194.pdf</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1400,22 +1393,22 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="S8" t="b">
@@ -1431,7 +1424,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jh/article-pdf/17/3/331/388088/jh0170331.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/16/5/1194/387436/1194.pdf</t>
         </is>
       </c>
       <c r="W8" t="b">
@@ -1443,19 +1436,19 @@
         </is>
       </c>
       <c r="Z8">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="AB8">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W1998762922</t>
+          <t>https://api.openalex.org/works?filter=cites:W1978787936</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/hydro.2015.022</t>
+          <t>https://doi.org/10.2166/hydro.2014.120</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -1473,37 +1466,35 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1965549985</t>
+          <t>https://openalex.org/W2171901943</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Robust rainwater harvesting: probabilistic tank sizing for climate change adaptation</t>
+          <t>Novelty detection for time series data analysis in water distribution systems using support vector machines</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Robust rainwater harvesting: probabilistic tank sizing for climate change adaptation</t>
+          <t>Novelty detection for time series data analysis in water distribution systems using support vector machines</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Rainwater harvesting (RWH) systems are increasingly being implemented in buildings. It is common in the UK for simple RWH tank sizing methods to be utilised, and these do not consider future climate change. This paper describes the development of a tool, which integrates elements of basic and detailed sizing approaches from the British Standard for RWH, with the latest probabilistic UK Climate Projections data. The method was initially applied to the design of a university building in Cornwall, UK. The methodology utilises 3,000 equi-probable rainfall patterns for tank sizing for each time period. Results indicate that, to ensure that it is ‘likely’ that the same non-potable demand could be met in 2080 as in the present, a tank 112% larger would be required. This increases to a 225% over-sizing for a ‘very likely’ probability of meeting the same level of non-potable demand. The same RWH system design was then assessed for three further UK locations with different rainfall characteristics. From these assessments, a simplified method was developed to enable practitioners to size RWH system tanks for current and future climates. The method provides a new approach to meet present and future non-potable demands, while preventing excessive over-sizing of tanks.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2014-05-05</t>
-        </is>
+          <t>The sampling frequency and quantity of time series data collected from water distribution systems has been increasing in recent years, giving rise to the potential for improving system knowledge if suitable automated techniques can be applied, in particular, machine learning. Novelty (or anomaly) detection refers to the automatic identification of novel or abnormal patterns embedded in large amounts of “normal” data. When dealing with time series data (transformed into vectors), this means abnormal events embedded amongst many normal time series points. The support vector machine is a data-driven statistical technique that has been developed as a tool for classification and regression. The key features include statistical robustness with respect to non-Gaussian errors and outliers, the selection of the decision boundary in a principled way, and the introduction of nonlinearity in the feature space without explicitly requiring a nonlinear algorithm by means of kernel functions. In this research, support vector regression is used as a learning method for anomaly detection from water flow and pressure time series data. No use is made of past event histories collected through other information sources. The support vector regression methodology, whose robustness derives from the training error function, is applied to a case study.</t>
+        </is>
+      </c>
+      <c r="F9" s="2">
+        <v>40488</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Journal of Water and Climate Change</t>
+          <t>Journal of Hydroinformatics</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://openalex.org/S32042501</t>
+          <t>https://openalex.org/S79392371</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1513,27 +1504,37 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2040-2244</t>
+          <t>1464-7141</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/wcc.2014.080</t>
+          <t>https://doi.org/10.2166/hydro.2010.144</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>https://iwaponline.com/jh/article-pdf/13/4/672/386589/672.pdf</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>672</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>686</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1542,23 +1543,23 @@
         </is>
       </c>
       <c r="S9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="b">
         <v>1</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://researchportal.bath.ac.uk/files/135903498/Resilient_RWH_journal_water_and_climate_change_FINAL_preprint.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/13/4/672/386589/672.pdf</t>
         </is>
       </c>
       <c r="W9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1566,19 +1567,19 @@
         </is>
       </c>
       <c r="Z9">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="AB9">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W1965549985</t>
+          <t>https://api.openalex.org/works?filter=cites:W2171901943</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/wcc.2014.080</t>
+          <t>https://doi.org/10.2166/hydro.2010.144</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -1596,28 +1597,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2128945086</t>
+          <t>https://openalex.org/W2329990195</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Radar-rainfall estimation algorithms of Hydro-NEXRAD</t>
+          <t>Optimal meter placement for pipe burst detection in water distribution systems</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Radar-rainfall estimation algorithms of Hydro-NEXRAD</t>
+          <t>Optimal meter placement for pipe burst detection in water distribution systems</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hydro-NEXRAD is a prototype software system that provides hydrology and water resource communities with ready access to the vast data archives of the U.S. weather radar network known as NEXRAD (Next Generation Weather Radar). This paper describes radar-rainfall estimation algorithms and their modular components used in the Hydro-NEXRAD system to generate rainfall products to be delivered to users. A variety of customized modules implemented in Hydro-NEXRAD perform radar-reflectivity data processing, produce radar-rainfall maps with user-requested space and time resolution, and combine multiple radar data for basins covered by multiple radars. System users can select rainfall estimation algorithms that range from simple (‘Quick Look’) to complex and computing-intensive (‘Hi-Fi’). The ‘Pseudo NWS PPS’ option allows close comparison with the algorithm used operationally by the US National Weather Service. The ‘Custom’ algorithm enables expert users to specify values for many of the parameters in the algorithm modules according to their experience and expectations. The Hydro-NEXRAD system, with its rainfall-estimation algorithms, can be used by both novice and expert users who need rainfall estimates as references or as input to their hydrologic modelling and forecasting applications</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2010-11-06</t>
-        </is>
+          <t>Pipe bursts in water distribution systems (WDS) must be rapidly detected to minimize the loss of system functionality and recovery time. Pipe burst is the most common failure in WDS. It results in water loss out of the system, increased head losses, and low pressure at the customers' taps. Therefore, effective and efficient detection of pipe bursts can improve system resilience. To this end, this study proposes an optimal meter placement model to identify meter locations that maximize detection effectiveness for a given number of meters and type of meter. The linear programming model is demonstrated on a modified Austin EPANET hydraulic network. Receiver operating characteristic (ROC) curves for alternative pressure and flow meters are applied to investigate the relationship between the level of available information and pipe burst detection effectiveness. The optimal sensor locations were distinctly different depending on the type of meter and the objective to be considered. The ROC curves for alternative pressure and pipe flow meters showed that pipe flow meters are vulnerable to false alarms, and that using many pipe flow meters could detect all pipe bursts. Pressure meters could detect up to 82% of the burst events.</t>
+        </is>
+      </c>
+      <c r="F10" s="2">
+        <v>42418</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1641,12 +1640,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/hydro.2010.003</t>
+          <t>https://doi.org/10.2166/hydro.2016.170</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jh/article-pdf/13/2/277/386525/277.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/18/4/741/389923/jh0180741.pdf</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1656,22 +1655,22 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>741</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>756</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S10" t="b">
@@ -1687,7 +1686,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jh/article-pdf/13/2/277/386525/277.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/18/4/741/389923/jh0180741.pdf</t>
         </is>
       </c>
       <c r="W10" t="b">
@@ -1699,19 +1698,19 @@
         </is>
       </c>
       <c r="Z10">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AB10">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W2128945086</t>
+          <t>https://api.openalex.org/works?filter=cites:W2329990195</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/hydro.2010.003</t>
+          <t>https://doi.org/10.2166/hydro.2016.170</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -1729,28 +1728,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2171901943</t>
+          <t>https://openalex.org/W2561033397</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Novelty detection for time series data analysis in water distribution systems using support vector machines</t>
+          <t>Data reconstruction of flow time series in water distribution systems – a new method that accommodates multiple seasonality</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Novelty detection for time series data analysis in water distribution systems using support vector machines</t>
+          <t>Data reconstruction of flow time series in water distribution systems – a new method that accommodates multiple seasonality</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The sampling frequency and quantity of time series data collected from water distribution systems has been increasing in recent years, giving rise to the potential for improving system knowledge if suitable automated techniques can be applied, in particular, machine learning. Novelty (or anomaly) detection refers to the automatic identification of novel or abnormal patterns embedded in large amounts of “normal” data. When dealing with time series data (transformed into vectors), this means abnormal events embedded amongst many normal time series points. The support vector machine is a data-driven statistical technique that has been developed as a tool for classification and regression. The key features include statistical robustness with respect to non-Gaussian errors and outliers, the selection of the decision boundary in a principled way, and the introduction of nonlinearity in the feature space without explicitly requiring a nonlinear algorithm by means of kernel functions. In this research, support vector regression is used as a learning method for anomaly detection from water flow and pressure time series data. No use is made of past event histories collected through other information sources. The support vector regression methodology, whose robustness derives from the training error function, is applied to a case study.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2010-11-06</t>
-        </is>
+          <t>The purpose of this paper is to present a simple yet highly effective method to reconstruct missing data in flow time series. The presence of missing values in network flow data severely restricts their use for an adequate management of billing systems and for network operation. Despite significant technology improvements, missing values are frequent due to metering, data acquisition and storage issues. The proposed method is based on a weighted function for forecast and backcast obtained from existing time series models that accommodate multiple seasonality. A comprehensive set of tests were run to demonstrate the effectiveness of this new method and results indicated that a model for flow data reconstruction should incorporate daily and seasonal components for more accurate predictions, the window size used for forecast and backcast should range between 1 and 4 weeks, and the use of two disjoint training sets to generate flow predictions is more robust to detect anomalous events than other existing methods. Results obtained for flow data reconstruction provide evidence of the effectiveness of the proposed approach.</t>
+        </is>
+      </c>
+      <c r="F11" s="2">
+        <v>42721</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1774,12 +1771,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/hydro.2010.144</t>
+          <t>https://doi.org/10.2166/hydro.2016.192</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jh/article-pdf/13/4/672/386589/672.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/19/2/238/734101/jh0190238.pdf</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1789,22 +1786,22 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>238</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>250</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S11" t="b">
@@ -1820,7 +1817,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jh/article-pdf/13/4/672/386589/672.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/19/2/238/734101/jh0190238.pdf</t>
         </is>
       </c>
       <c r="W11" t="b">
@@ -1832,19 +1829,19 @@
         </is>
       </c>
       <c r="Z11">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="AB11">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W2171901943</t>
+          <t>https://api.openalex.org/works?filter=cites:W2561033397</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/hydro.2010.144</t>
+          <t>https://doi.org/10.2166/hydro.2016.192</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -1862,28 +1859,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2045185088</t>
+          <t>https://openalex.org/W3035801379</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Improving the rapidity of responses to pipe burst in water distribution systems: a comparison of statistical process control methods</t>
+          <t>Parameter estimation of soil hydraulic characteristics by inverse modeling of the analytical equation for unsaturated subsurface water flow</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Improving the rapidity of responses to pipe burst in water distribution systems: a comparison of statistical process control methods</t>
+          <t>Parameter estimation of soil hydraulic characteristics by inverse modeling of the analytical equation for unsaturated subsurface water flow</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A pipe burst is a major water distribution system failure. Water escapes the network through the break increasing the total flow entering the network. These higher flows, in turn, increase the head losses in pipes and result in lower water pressures at customer taps. This study focuses on burst detection by seeking to identify anomalies in net system demand, pipe flow rates, and nodal pressure heads. Three univariate statistical process control (SPC) methods (the Western Electric Company rules, the cumulative sum (CUSUM) method, and the exponentially weighted moving average [EWMA]) and three multivariate SPC methods (Hotelling T2 method and multivariate versions of CUSUM and EWMA) are compared with respect to their detection effectiveness and efficiency. First, the three univariate methods are tested using real system burst detection and then the six SPC methods are compared using synthetic data. The real application using net system demand shows that burst flows are proportionally too small to be detected. Synthetic data analyses suggest that the univariate EWMA method using nodal pressure provides the highest detectability. The method's long record length helps detect small bursts and avoid false detection. SPC methods require consistent system operations for measurements beyond total area flow.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2014-10-08</t>
-        </is>
+          <t>Abstract In drip-irrigated systems, the understanding of the soil wetting pattern is essential in defining the area effectively irrigated, the spacing between the emitters and their installation depth, and the irrigation rate. Thus, this study aims to estimate soil hydraulic characteristics through inverse modeling of an analytical equation used in wetting bulb simulation based on soil moisture measurements obtained in the field. The parameters of the Gardner model, which describes the unsaturated soil hydraulic conductivity, and the van Genuchten model that describes the soil moisture retention curve, were estimated by inverse modeling techniques. The following options were considered: (A) estimating parameter β while considering the other parameters, Ko, θr, θs, α, n, and m, as known and obtained experimentally; (B) estimating parameters Ko and β while considering the experimental retention curve as known; (C) estimating parameters Ko, β, α, n, and m while considering the values of the θr and θs volumetric moisture as known; (D) estimating all the parameters of Gardner and van Genuchten models (Ko, θr, θs, α, n, and m). The results indicate that option D showed better concordance between the estimated and observed moisture values. Thus, the inverse modeling of the analytical equation is an important tool for irrigation design and management.</t>
+        </is>
+      </c>
+      <c r="F12" s="2">
+        <v>44004</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1907,12 +1902,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/hydro.2014.101</t>
+          <t>https://doi.org/10.2166/hydro.2020.015</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jh/article-pdf/17/2/307/387901/jh0170307.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/22/5/1270/762042/jh0221270.pdf</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1922,22 +1917,22 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>1282</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="S12" t="b">
@@ -1953,7 +1948,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jh/article-pdf/17/2/307/387901/jh0170307.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/22/5/1270/762042/jh0221270.pdf</t>
         </is>
       </c>
       <c r="W12" t="b">
@@ -1965,19 +1960,19 @@
         </is>
       </c>
       <c r="Z12">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="AB12">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W2045185088</t>
+          <t>https://api.openalex.org/works?filter=cites:W3035801379</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/hydro.2014.101</t>
+          <t>https://doi.org/10.2166/hydro.2020.015</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -1995,28 +1990,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1978787936</t>
+          <t>https://openalex.org/W3035801379</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Heuristic burst detection method using flow and pressure measurements</t>
+          <t>Parameter estimation of soil hydraulic characteristics by inverse modeling of the analytical equation for unsaturated subsurface water flow</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Heuristic burst detection method using flow and pressure measurements</t>
+          <t>Parameter estimation of soil hydraulic characteristics by inverse modeling of the analytical equation for unsaturated subsurface water flow</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pipe bursts in a drinking water distribution system lead to water losses, interruption of supply, and damage to streets and houses due to the uncontrolled water flow. To minimize the negative consequences of pipe bursts, an early detection is necessary. This paper describes a heuristic burst detection method, which continuously compares measured and expected values of water demands and pressures. The expected values of the water demand are generated by an adaptive water demand forecasting model, and the expected values of the pressures are generated by a dynamic pressure drop – demand relation estimator. The method was tested off-line on a historic dataset of 5 years of water flow and pressure data in three supply areas (with 650, 11,180 and 130,920 connections) in the western part of the Netherlands. In the period 274 bursts were reported of which, based on the definition we propose in this paper, 38 were considered as relatively larger bursts. The method was able to detect 50, 25.9 and 7.8% in the considered areas related to all bursts, and around 80% in all three areas related to the subset of relatively larger bursts. The method generated false alarms on 3% of the evaluated days on average.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2014-04-23</t>
-        </is>
+          <t>Abstract In drip-irrigated systems, the understanding of the soil wetting pattern is essential in defining the area effectively irrigated, the spacing between the emitters and their installation depth, and the irrigation rate. Thus, this study aims to estimate soil hydraulic characteristics through inverse modeling of an analytical equation used in wetting bulb simulation based on soil moisture measurements obtained in the field. The parameters of the Gardner model, which describes the unsaturated soil hydraulic conductivity, and the van Genuchten model that describes the soil moisture retention curve, were estimated by inverse modeling techniques. The following options were considered: (A) estimating parameter β while considering the other parameters, Ko, θr, θs, α, n, and m, as known and obtained experimentally; (B) estimating parameters Ko and β while considering the experimental retention curve as known; (C) estimating parameters Ko, β, α, n, and m while considering the values of the θr and θs volumetric moisture as known; (D) estimating all the parameters of Gardner and van Genuchten models (Ko, θr, θs, α, n, and m). The results indicate that option D showed better concordance between the estimated and observed moisture values. Thus, the inverse modeling of the analytical equation is an important tool for irrigation design and management.</t>
+        </is>
+      </c>
+      <c r="F13" s="2">
+        <v>44004</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2040,12 +2033,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/hydro.2014.120</t>
+          <t>https://doi.org/10.2166/hydro.2020.015</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jh/article-pdf/16/5/1194/387436/1194.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/22/5/1270/762042/jh0221270.pdf</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2055,17 +2048,17 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1194</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>1282</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2086,7 +2079,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jh/article-pdf/16/5/1194/387436/1194.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/22/5/1270/762042/jh0221270.pdf</t>
         </is>
       </c>
       <c r="W13" t="b">
@@ -2098,19 +2091,19 @@
         </is>
       </c>
       <c r="Z13">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="AB13">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W1978787936</t>
+          <t>https://api.openalex.org/works?filter=cites:W3035801379</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/hydro.2014.120</t>
+          <t>https://doi.org/10.2166/hydro.2020.015</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -2128,28 +2121,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2329990195</t>
+          <t>https://openalex.org/W1988407666</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Optimal meter placement for pipe burst detection in water distribution systems</t>
+          <t>Development of a real-time, near-optimal control process for water-distribution networks</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Optimal meter placement for pipe burst detection in water distribution systems</t>
+          <t>Development of a real-time, near-optimal control process for water-distribution networks</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pipe bursts in water distribution systems (WDS) must be rapidly detected to minimize the loss of system functionality and recovery time. Pipe burst is the most common failure in WDS. It results in water loss out of the system, increased head losses, and low pressure at the customers' taps. Therefore, effective and efficient detection of pipe bursts can improve system resilience. To this end, this study proposes an optimal meter placement model to identify meter locations that maximize detection effectiveness for a given number of meters and type of meter. The linear programming model is demonstrated on a modified Austin EPANET hydraulic network. Receiver operating characteristic (ROC) curves for alternative pressure and flow meters are applied to investigate the relationship between the level of available information and pipe burst detection effectiveness. The optimal sensor locations were distinctly different depending on the type of meter and the objective to be considered. The ROC curves for alternative pressure and pipe flow meters showed that pipe flow meters are vulnerable to false alarms, and that using many pipe flow meters could detect all pipe bursts. Pressure meters could detect up to 82% of the burst events.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2016-02-18</t>
-        </is>
+          <t>This paper presents a new approach for the real-time, near-optimal control of water-distribution networks, which forms an integral part of the POWADIMA research project. The process is based on the combined use of an artificial neural network for predicting the consequences of different control settings and a genetic algorithm for selecting the best combination. By this means, it is possible to find the optimal, or at least near-optimal, pump and valve settings for the present time-step as well as those up to a selected operating horizon, taking account of the short-term demand fluctuations, the electricity tariff structure and operational constraints such as minimum delivery pressures, etc. Thereafter, the near-optimal control settings for the present time-step are implemented. Having grounded any discrepancies between the previously predicted and measured storage levels at the next update of the monitoring facilities, the whole process is repeated on a rolling basis and a new operating strategy is computed. Contingency measures for dealing with pump failures, pipe bursts, etc., have also been included. The novelty of this approach is illustrated by the application to a small, hypothetical network. Its relevance to real networks is discussed in the subsequent papers on case studies.</t>
+        </is>
+      </c>
+      <c r="F14" s="2">
+        <v>39035</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2173,12 +2164,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/hydro.2016.170</t>
+          <t>https://doi.org/10.2166/hydro.2006.015</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jh/article-pdf/18/4/741/389923/jh0180741.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/9/1/25/392845/25.pdf</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2188,22 +2179,22 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>37</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S14" t="b">
@@ -2219,7 +2210,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jh/article-pdf/18/4/741/389923/jh0180741.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/9/1/25/392845/25.pdf</t>
         </is>
       </c>
       <c r="W14" t="b">
@@ -2231,19 +2222,19 @@
         </is>
       </c>
       <c r="Z14">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="AB14">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W2329990195</t>
+          <t>https://api.openalex.org/works?filter=cites:W1988407666</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/hydro.2016.170</t>
+          <t>https://doi.org/10.2166/hydro.2006.015</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -2261,37 +2252,35 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2561033397</t>
+          <t>https://openalex.org/W2588726084</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Data reconstruction of flow time series in water distribution systems – a new method that accommodates multiple seasonality</t>
+          <t>History of sanitation and hygiene technologies in the Hellenic world</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Data reconstruction of flow time series in water distribution systems – a new method that accommodates multiple seasonality</t>
+          <t>History of sanitation and hygiene technologies in the Hellenic world</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>The purpose of this paper is to present a simple yet highly effective method to reconstruct missing data in flow time series. The presence of missing values in network flow data severely restricts their use for an adequate management of billing systems and for network operation. Despite significant technology improvements, missing values are frequent due to metering, data acquisition and storage issues. The proposed method is based on a weighted function for forecast and backcast obtained from existing time series models that accommodate multiple seasonality. A comprehensive set of tests were run to demonstrate the effectiveness of this new method and results indicated that a model for flow data reconstruction should incorporate daily and seasonal components for more accurate predictions, the window size used for forecast and backcast should range between 1 and 4 weeks, and the use of two disjoint training sets to generate flow predictions is more robust to detect anomalous events than other existing methods. Results obtained for flow data reconstruction provide evidence of the effectiveness of the proposed approach.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2016-12-17</t>
-        </is>
+          <t>Sanitation and hygiene technologies have existed in ancient Hellas since the Bronze Age (ca. 3200–1100 bc), when extensive sewerage and drainage and other elaborate sanitary structures were known in Minoan palaces and towns. Classical and Hellenistic periods should be considered as the most progressive eras in the design of sanitary engineering. At that time anatomically shaped toilet seats are found in several sites since many private houses and public buildings have them. As cities grew in size the pressure of larger populations resulted in the construction of communal toilets with seats that were more densely packed together. Drainage and sewerage systems and sanitary installations reflect high cultural and technological levels and they are associated with contemporary observations and ideas about hygiene and medicine. Before the Hellenic advances, medicine was entirely confined to religious beliefs and metaphysical rituals. In the early Roman period, the knowledge of the ancient world on hygienic matter was incorporated in legislative rules. Despite the weakening of this legislation through the ages, the sanitation practices kept being applied even via a technical tradition of the masons. Later various rulers of the Hellenic world (Europeans or Ottomans), introduced their practices (traditional/scientific) sanitation in the greater Helladic regions.</t>
+        </is>
+      </c>
+      <c r="F15" s="2">
+        <v>42780</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Journal of Hydroinformatics</t>
+          <t>Journal of Water Sanitation and Hygiene for Development</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://openalex.org/S79392371</t>
+          <t>https://openalex.org/S2495644771</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2301,17 +2290,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1464-7141</t>
+          <t>2043-9083</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/hydro.2016.192</t>
+          <t>https://doi.org/10.2166/washdev.2017.178</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jh/article-pdf/19/2/238/734101/jh0190238.pdf</t>
+          <t>https://iwaponline.com/washdev/article-pdf/7/2/163/158727/washdev0070163.pdf</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2321,17 +2310,17 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>163</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>180</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -2352,7 +2341,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jh/article-pdf/19/2/238/734101/jh0190238.pdf</t>
+          <t>https://iwaponline.com/washdev/article-pdf/7/2/163/158727/washdev0070163.pdf</t>
         </is>
       </c>
       <c r="W15" t="b">
@@ -2364,19 +2353,19 @@
         </is>
       </c>
       <c r="Z15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB15">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W2561033397</t>
+          <t>https://api.openalex.org/works?filter=cites:W2588726084</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/hydro.2016.192</t>
+          <t>https://doi.org/10.2166/washdev.2017.178</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -2394,28 +2383,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2083662853</t>
+          <t>https://openalex.org/W1606817393</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Comparison of different radar-raingauge rainfall merging techniques</t>
+          <t>Handling uncertainty in the hydroinformatic process</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Comparison of different radar-raingauge rainfall merging techniques</t>
+          <t>Handling uncertainty in the hydroinformatic process</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>The improvement of precipitation estimation with the use of radar-raingauge rainfall merging techniques is influenced by several factors, such as topography, storm types, raingauge network density for adjustment, data quality and the rainfall accumulation time. However, the influence of the raingauge network configuration on the performance of radar-raingauge merging methods is often ignored. The aim of this study is to compare and evaluate the performance of different radar-raingauge merging methods on various densities of raingauge network and raingauge network configurations. The analysis of the effect of the raingauge network density shows that the performance of Kriging merging methods increases with the increase of raingauge network density. The results also showed that the influence of raingauge network configuration on the spatial distribution of precipitation of the merged products is relatively smaller for the Kriging with radar-based error correction (KRE) and Kriging with external drift (KED) methods than for the ordinary Kriging method. This indicates that the inclusion of radar data in the KRE and KED methods helps to maintain the spatial distribution of precipitation on an hourly timescale. According to the statistical performance indicators and visual inspection of the merged rainfall fields, the KED outperforms the other radar-raingauge merging techniques, regardless of raingauge network density and configuration.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2015-01-03</t>
-        </is>
+          <t>Hydroinformatics combines topics of modelling and decision-making, both of which have attracted a great deal of attention outside hydroinformatics from the point of view of uncertainty. Epistemic uncertainties are due to the inevitably incomplete evidence about the dependability of a model or set of competing models. Inherent uncertainties are due to the varying information content inherent in measurements or model predictions, be they probabilistic or fuzzy. Decision-making in management of the aquatic environment is, more often than not, a complex, discursive, multi-player process. The requirement for hydroinformatics systems is to support rather than replace human judgment in this process, a requirement that has significant bearing on the treatment of uncertainty. Furthermore, a formal language is required to encode uncertainty in computer systems. We therefore review the modern mathematics of uncertainty, starting first with probability theory and then extending to fuzzy set theory and possibility theory, the theory of evidence (and its random set counterpart), which generalises probability and possibility theory, and higher-order generalisations. A simple example from coastal hydraulics illustrates how a range of types of uncertain information (including probability distributions, interval measurements and fuzzy sets) can be handled in the types of algebraic or numerical functions that form the kernel of most hydroinformatic systems.</t>
+        </is>
+      </c>
+      <c r="F16" s="2">
+        <v>37895</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2439,12 +2426,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/hydro.2015.001</t>
+          <t>https://doi.org/10.2166/hydro.2003.0019</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jh/article-pdf/17/3/422/388329/jh0170422.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/5/4/215/392617/215.pdf</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2454,22 +2441,22 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>215</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>232</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S16" t="b">
@@ -2485,7 +2472,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://iwaponline.com/jh/article-pdf/17/3/422/388329/jh0170422.pdf</t>
+          <t>https://iwaponline.com/jh/article-pdf/5/4/215/392617/215.pdf</t>
         </is>
       </c>
       <c r="W16" t="b">
@@ -2497,19 +2484,19 @@
         </is>
       </c>
       <c r="Z16">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="AB16">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W2083662853</t>
+          <t>https://api.openalex.org/works?filter=cites:W1606817393</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2166/hydro.2015.001</t>
+          <t>https://doi.org/10.2166/hydro.2003.0019</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
@@ -2521,804 +2508,6 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3035801379</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Parameter estimation of soil hydraulic characteristics by inverse modeling of the analytical equation for unsaturated subsurface water flow</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Parameter estimation of soil hydraulic characteristics by inverse modeling of the analytical equation for unsaturated subsurface water flow</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Abstract In drip-irrigated systems, the understanding of the soil wetting pattern is essential in defining the area effectively irrigated, the spacing between the emitters and their installation depth, and the irrigation rate. Thus, this study aims to estimate soil hydraulic characteristics through inverse modeling of an analytical equation used in wetting bulb simulation based on soil moisture measurements obtained in the field. The parameters of the Gardner model, which describes the unsaturated soil hydraulic conductivity, and the van Genuchten model that describes the soil moisture retention curve, were estimated by inverse modeling techniques. The following options were considered: (A) estimating parameter β while considering the other parameters, Ko, θr, θs, α, n, and m, as known and obtained experimentally; (B) estimating parameters Ko and β while considering the experimental retention curve as known; (C) estimating parameters Ko, β, α, n, and m while considering the values of the θr and θs volumetric moisture as known; (D) estimating all the parameters of Gardner and van Genuchten models (Ko, θr, θs, α, n, and m). The results indicate that option D showed better concordance between the estimated and observed moisture values. Thus, the inverse modeling of the analytical equation is an important tool for irrigation design and management.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2020-06-22</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Journal of Hydroinformatics</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>https://openalex.org/S79392371</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>IWA Publishing</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>1464-7141</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2166/hydro.2020.015</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>https://iwaponline.com/jh/article-pdf/22/5/1270/762042/jh0221270.pdf</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>1270</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>1282</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="S17" t="b">
-        <v>1</v>
-      </c>
-      <c r="T17" t="b">
-        <v>1</v>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>https://iwaponline.com/jh/article-pdf/22/5/1270/762042/jh0221270.pdf</t>
-        </is>
-      </c>
-      <c r="W17" t="b">
-        <v>0</v>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Z17">
-        <v>5</v>
-      </c>
-      <c r="AB17">
-        <v>2020</v>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W3035801379</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2166/hydro.2020.015</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="AI17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1988407666</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Development of a real-time, near-optimal control process for water-distribution networks</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Development of a real-time, near-optimal control process for water-distribution networks</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>This paper presents a new approach for the real-time, near-optimal control of water-distribution networks, which forms an integral part of the POWADIMA research project. The process is based on the combined use of an artificial neural network for predicting the consequences of different control settings and a genetic algorithm for selecting the best combination. By this means, it is possible to find the optimal, or at least near-optimal, pump and valve settings for the present time-step as well as those up to a selected operating horizon, taking account of the short-term demand fluctuations, the electricity tariff structure and operational constraints such as minimum delivery pressures, etc. Thereafter, the near-optimal control settings for the present time-step are implemented. Having grounded any discrepancies between the previously predicted and measured storage levels at the next update of the monitoring facilities, the whole process is repeated on a rolling basis and a new operating strategy is computed. Contingency measures for dealing with pump failures, pipe bursts, etc., have also been included. The novelty of this approach is illustrated by the application to a small, hypothetical network. Its relevance to real networks is discussed in the subsequent papers on case studies.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2007-01-01</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Journal of Hydroinformatics</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>https://openalex.org/S79392371</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>IWA Publishing</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>1464-7141</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2166/hydro.2006.015</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>https://iwaponline.com/jh/article-pdf/9/1/25/392845/25.pdf</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S18" t="b">
-        <v>1</v>
-      </c>
-      <c r="T18" t="b">
-        <v>1</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>https://iwaponline.com/jh/article-pdf/9/1/25/392845/25.pdf</t>
-        </is>
-      </c>
-      <c r="W18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Z18">
-        <v>104</v>
-      </c>
-      <c r="AB18">
-        <v>2007</v>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W1988407666</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2166/hydro.2006.015</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="AI18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1988407666</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Development of a real-time, near-optimal control process for water-distribution networks</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Development of a real-time, near-optimal control process for water-distribution networks</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>This paper presents a new approach for the real-time, near-optimal control of water-distribution networks, which forms an integral part of the POWADIMA research project. The process is based on the combined use of an artificial neural network for predicting the consequences of different control settings and a genetic algorithm for selecting the best combination. By this means, it is possible to find the optimal, or at least near-optimal, pump and valve settings for the present time-step as well as those up to a selected operating horizon, taking account of the short-term demand fluctuations, the electricity tariff structure and operational constraints such as minimum delivery pressures, etc. Thereafter, the near-optimal control settings for the present time-step are implemented. Having grounded any discrepancies between the previously predicted and measured storage levels at the next update of the monitoring facilities, the whole process is repeated on a rolling basis and a new operating strategy is computed. Contingency measures for dealing with pump failures, pipe bursts, etc., have also been included. The novelty of this approach is illustrated by the application to a small, hypothetical network. Its relevance to real networks is discussed in the subsequent papers on case studies.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2006-11-14</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Journal of Hydroinformatics</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>https://openalex.org/S79392371</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>IWA Publishing</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>1464-7141</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2166/hydro.2006.015</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>https://iwaponline.com/jh/article-pdf/9/1/25/392845/25.pdf</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S19" t="b">
-        <v>1</v>
-      </c>
-      <c r="T19" t="b">
-        <v>1</v>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>https://iwaponline.com/jh/article-pdf/9/1/25/392845/25.pdf</t>
-        </is>
-      </c>
-      <c r="W19" t="b">
-        <v>0</v>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Z19">
-        <v>105</v>
-      </c>
-      <c r="AB19">
-        <v>2006</v>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W1988407666</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2166/hydro.2006.015</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="AI19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2588726084</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>History of sanitation and hygiene technologies in the Hellenic world</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>History of sanitation and hygiene technologies in the Hellenic world</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Sanitation and hygiene technologies have existed in ancient Hellas since the Bronze Age (ca. 3200–1100 bc), when extensive sewerage and drainage and other elaborate sanitary structures were known in Minoan palaces and towns. Classical and Hellenistic periods should be considered as the most progressive eras in the design of sanitary engineering. At that time anatomically shaped toilet seats are found in several sites since many private houses and public buildings have them. As cities grew in size the pressure of larger populations resulted in the construction of communal toilets with seats that were more densely packed together. Drainage and sewerage systems and sanitary installations reflect high cultural and technological levels and they are associated with contemporary observations and ideas about hygiene and medicine. Before the Hellenic advances, medicine was entirely confined to religious beliefs and metaphysical rituals. In the early Roman period, the knowledge of the ancient world on hygienic matter was incorporated in legislative rules. Despite the weakening of this legislation through the ages, the sanitation practices kept being applied even via a technical tradition of the masons. Later various rulers of the Hellenic world (Europeans or Ottomans), introduced their practices (traditional/scientific) sanitation in the greater Helladic regions.</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2017-02-14</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Journal of Water Sanitation and Hygiene for Development</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>https://openalex.org/S2495644771</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>IWA Publishing</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2043-9083</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2166/washdev.2017.178</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>https://iwaponline.com/washdev/article-pdf/7/2/163/158727/washdev0070163.pdf</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="S20" t="b">
-        <v>1</v>
-      </c>
-      <c r="T20" t="b">
-        <v>1</v>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>https://iwaponline.com/washdev/article-pdf/7/2/163/158727/washdev0070163.pdf</t>
-        </is>
-      </c>
-      <c r="W20" t="b">
-        <v>0</v>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Z20">
-        <v>15</v>
-      </c>
-      <c r="AB20">
-        <v>2017</v>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W2588726084</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2166/washdev.2017.178</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="AI20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1606817393</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Handling uncertainty in the hydroinformatic process</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Handling uncertainty in the hydroinformatic process</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Hydroinformatics combines topics of modelling and decision-making, both of which have attracted a great deal of attention outside hydroinformatics from the point of view of uncertainty. Epistemic uncertainties are due to the inevitably incomplete evidence about the dependability of a model or set of competing models. Inherent uncertainties are due to the varying information content inherent in measurements or model predictions, be they probabilistic or fuzzy. Decision-making in management of the aquatic environment is, more often than not, a complex, discursive, multi-player process. The requirement for hydroinformatics systems is to support rather than replace human judgment in this process, a requirement that has significant bearing on the treatment of uncertainty. Furthermore, a formal language is required to encode uncertainty in computer systems. We therefore review the modern mathematics of uncertainty, starting first with probability theory and then extending to fuzzy set theory and possibility theory, the theory of evidence (and its random set counterpart), which generalises probability and possibility theory, and higher-order generalisations. A simple example from coastal hydraulics illustrates how a range of types of uncertain information (including probability distributions, interval measurements and fuzzy sets) can be handled in the types of algebraic or numerical functions that form the kernel of most hydroinformatic systems.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2003-10-01</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Journal of Hydroinformatics</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>https://openalex.org/S79392371</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>IWA Publishing</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>1464-7141</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2166/hydro.2003.0019</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>https://iwaponline.com/jh/article-pdf/5/4/215/392617/215.pdf</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="S21" t="b">
-        <v>1</v>
-      </c>
-      <c r="T21" t="b">
-        <v>1</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>https://iwaponline.com/jh/article-pdf/5/4/215/392617/215.pdf</t>
-        </is>
-      </c>
-      <c r="W21" t="b">
-        <v>0</v>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Z21">
-        <v>77</v>
-      </c>
-      <c r="AB21">
-        <v>2003</v>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W1606817393</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2166/hydro.2003.0019</t>
-        </is>
-      </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="AI21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3035801379</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Parameter estimation of soil hydraulic characteristics by inverse modeling of the analytical equation for unsaturated subsurface water flow</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Parameter estimation of soil hydraulic characteristics by inverse modeling of the analytical equation for unsaturated subsurface water flow</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Abstract In drip-irrigated systems, the understanding of the soil wetting pattern is essential in defining the area effectively irrigated, the spacing between the emitters and their installation depth, and the irrigation rate. Thus, this study aims to estimate soil hydraulic characteristics through inverse modeling of an analytical equation used in wetting bulb simulation based on soil moisture measurements obtained in the field. The parameters of the Gardner model, which describes the unsaturated soil hydraulic conductivity, and the van Genuchten model that describes the soil moisture retention curve, were estimated by inverse modeling techniques. The following options were considered: (A) estimating parameter β while considering the other parameters, Ko, θr, θs, α, n, and m, as known and obtained experimentally; (B) estimating parameters Ko and β while considering the experimental retention curve as known; (C) estimating parameters Ko, β, α, n, and m while considering the values of the θr and θs volumetric moisture as known; (D) estimating all the parameters of Gardner and van Genuchten models (Ko, θr, θs, α, n, and m). The results indicate that option D showed better concordance between the estimated and observed moisture values. Thus, the inverse modeling of the analytical equation is an important tool for irrigation design and management.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2020-06-22</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Journal of Hydroinformatics</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>https://openalex.org/S79392371</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>IWA Publishing</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>1464-7141</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2166/hydro.2020.015</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>https://iwaponline.com/jh/article-pdf/22/5/1270/762042/jh0221270.pdf</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>1270</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>1282</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="S22" t="b">
-        <v>1</v>
-      </c>
-      <c r="T22" t="b">
-        <v>1</v>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>https://iwaponline.com/jh/article-pdf/22/5/1270/762042/jh0221270.pdf</t>
-        </is>
-      </c>
-      <c r="W22" t="b">
-        <v>0</v>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Z22">
-        <v>5</v>
-      </c>
-      <c r="AB22">
-        <v>2020</v>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W3035801379</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2166/hydro.2020.015</t>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="AI22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="b">
         <v>0</v>
       </c>
     </row>
